--- a/accuracy.xlsx
+++ b/accuracy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajde\OneDrive\Desktop\Prosthetic_Hand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C48EB84-48BA-472C-8484-A60A16F3C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8DD51-BA4A-43D8-BEBC-2E5158A4FA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Subjects</t>
   </si>
@@ -60,13 +60,10 @@
     <t>Subject 10</t>
   </si>
   <si>
-    <t>Accuracy of Closing the Prosthetic Hand</t>
+    <t>Accuracy of Grabbing Any Object With the Prosthetic Hand</t>
   </si>
   <si>
-    <t>Accuracy of Opening the Prosthetic Hand</t>
-  </si>
-  <si>
-    <t>Accuracy of Grabbing Any Object With the Prosthetic Hand</t>
+    <t>Accuracy of Closing and Opening the Prosthetic Hand</t>
   </si>
 </sst>
 </file>
@@ -288,10 +285,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
@@ -300,16 +297,16 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.6</c:v>
@@ -592,7 +589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy of Closing the Prosthetic Hand</c:v>
+                  <c:v>Accuracy of Closing and Opening the Prosthetic Hand</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -662,13 +659,13 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.85</c:v>
@@ -677,7 +674,7 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.75</c:v>
@@ -858,371 +855,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accuracy of Opening the Prosthetic Hand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$57:$A$66</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Subject 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Subject 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Subject 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Subject 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Subject 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Subject 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Subject 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Subject 8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Subject 9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Subject 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$57:$B$66</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-030D-42B6-9FE6-88C670F8E221}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="1350363360"/>
-        <c:axId val="1818818592"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="1350363360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1818818592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1818818592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1350363360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1303,46 +935,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -1838,500 +1430,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2871,10 +1969,10 @@
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2894,42 +1992,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DE7C9D-7D75-9360-B819-CF051753D271}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3203,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3217,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3323,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3363,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3371,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="1">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3406,93 +2468,35 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0.75</v>
-      </c>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
